--- a/demo/导表/电气入库/4.1 110kV配电装置.xlsx
+++ b/demo/导表/电气入库/4.1 110kV配电装置.xlsx
@@ -19,48 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>额定电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额定电流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额定频率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额定开断电流</t>
-  </si>
-  <si>
-    <t>额定关合电流</t>
-  </si>
-  <si>
-    <t>额定峰值耐受电流</t>
-  </si>
-  <si>
-    <t>额定短时耐受电流</t>
-  </si>
-  <si>
-    <t>出线间隔</t>
-  </si>
-  <si>
-    <t>PT间隔</t>
-  </si>
-  <si>
-    <t>准确级</t>
-  </si>
-  <si>
     <t>户外GIS</t>
   </si>
   <si>
@@ -68,13 +32,55 @@
   </si>
   <si>
     <t>0.2/0.5/3P</t>
+  </si>
+  <si>
+    <t>TypeID</t>
+  </si>
+  <si>
+    <t>TypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RatedVoltage</t>
+  </si>
+  <si>
+    <t>RatedCurrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RatedFrequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RatedBreakingCurrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RatedClosingCurrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RatedPeakWCurrent</t>
+  </si>
+  <si>
+    <t>RatedShortTimeWCurrent</t>
+  </si>
+  <si>
+    <t>LineSpacing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTSpacing</t>
+  </si>
+  <si>
+    <t>AccuracyClass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,11 +96,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="15"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Fira Code Medium"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,7 +124,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -468,89 +475,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
+      <c r="D2">
         <v>126</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>50</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>40</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
-        <v>14</v>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>